--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Swapna\Eclipse\YourStoreAutomation\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DCADDF-273F-4187-9188-B13042D5063B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9E0FC5-21AB-44F5-9C96-65A64A189B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="13440" activeTab="1" xr2:uid="{311D54E4-DD46-44C6-A55F-511D489315C8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="13440" xr2:uid="{311D54E4-DD46-44C6-A55F-511D489315C8}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>firstname</t>
   </si>
@@ -88,6 +88,15 @@
   </si>
   <si>
     <t>confirmpassword</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>swda@gmail.com</t>
+  </si>
+  <si>
+    <t>sw@12</t>
   </si>
 </sst>
 </file>
@@ -166,7 +175,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -177,6 +186,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -492,12 +502,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8886D33-55B3-485F-8E42-E19543590A48}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{1D25F97C-DBFC-457D-A8B8-C95F21AD3CDD}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{ED4BA7BB-45DC-4280-9AA2-9CB156F3F96C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -506,7 +543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AC95C3-1697-4FDE-BA71-5965A4927824}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
